--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/49.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/49.xlsx
@@ -479,13 +479,13 @@
         <v>-9.666001820333719</v>
       </c>
       <c r="E2" t="n">
-        <v>-17.95880372596321</v>
+        <v>-16.83297789167064</v>
       </c>
       <c r="F2" t="n">
-        <v>1.896704746336319</v>
+        <v>3.039006533770396</v>
       </c>
       <c r="G2" t="n">
-        <v>-8.821108110500036</v>
+        <v>-10.21626444408409</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-9.379193097786628</v>
       </c>
       <c r="E3" t="n">
-        <v>-18.45820599940484</v>
+        <v>-17.36319557539444</v>
       </c>
       <c r="F3" t="n">
-        <v>1.846088858243149</v>
+        <v>2.958724152008786</v>
       </c>
       <c r="G3" t="n">
-        <v>-8.827116699939475</v>
+        <v>-10.12704006876289</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-9.021930767485816</v>
       </c>
       <c r="E4" t="n">
-        <v>-18.89620723560489</v>
+        <v>-17.88602596974232</v>
       </c>
       <c r="F4" t="n">
-        <v>1.979915643211212</v>
+        <v>3.046599161434715</v>
       </c>
       <c r="G4" t="n">
-        <v>-8.957369620887823</v>
+        <v>-10.18068714111355</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-8.611131510787692</v>
       </c>
       <c r="E5" t="n">
-        <v>-19.37917266795995</v>
+        <v>-18.29313846055719</v>
       </c>
       <c r="F5" t="n">
-        <v>2.42353434830134</v>
+        <v>3.423106469262702</v>
       </c>
       <c r="G5" t="n">
-        <v>-8.74603252105169</v>
+        <v>-9.863224369217292</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-8.154923102608752</v>
       </c>
       <c r="E6" t="n">
-        <v>-19.83435387429033</v>
+        <v>-18.95995499614259</v>
       </c>
       <c r="F6" t="n">
-        <v>2.564161741821282</v>
+        <v>3.528528124333989</v>
       </c>
       <c r="G6" t="n">
-        <v>-8.569334034867651</v>
+        <v>-9.569835067133726</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-7.665942239056871</v>
       </c>
       <c r="E7" t="n">
-        <v>-20.52024242566356</v>
+        <v>-19.58504385811887</v>
       </c>
       <c r="F7" t="n">
-        <v>2.67210123542903</v>
+        <v>3.542378680787959</v>
       </c>
       <c r="G7" t="n">
-        <v>-8.263839551781603</v>
+        <v>-9.292721268910119</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-7.151442378612041</v>
       </c>
       <c r="E8" t="n">
-        <v>-21.07949103216309</v>
+        <v>-20.13441178174037</v>
       </c>
       <c r="F8" t="n">
-        <v>2.946423410731628</v>
+        <v>3.801359152542178</v>
       </c>
       <c r="G8" t="n">
-        <v>-8.208720888364004</v>
+        <v>-9.09703876906185</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-6.620096851919559</v>
       </c>
       <c r="E9" t="n">
-        <v>-21.45983132137474</v>
+        <v>-20.60404000336248</v>
       </c>
       <c r="F9" t="n">
-        <v>3.336512379635905</v>
+        <v>4.118005460291658</v>
       </c>
       <c r="G9" t="n">
-        <v>-8.581845003440087</v>
+        <v>-9.295263552480916</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-6.078738497702715</v>
       </c>
       <c r="E10" t="n">
-        <v>-22.12819767213695</v>
+        <v>-21.24415767244766</v>
       </c>
       <c r="F10" t="n">
-        <v>3.658077028293502</v>
+        <v>4.441633269847094</v>
       </c>
       <c r="G10" t="n">
-        <v>-8.240655881218693</v>
+        <v>-8.846247383809713</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-5.533526833499357</v>
       </c>
       <c r="E11" t="n">
-        <v>-23.08698080880764</v>
+        <v>-22.21692336875773</v>
       </c>
       <c r="F11" t="n">
-        <v>3.752156187433546</v>
+        <v>4.565686930088193</v>
       </c>
       <c r="G11" t="n">
-        <v>-8.044318254450255</v>
+        <v>-8.641632668415589</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-4.989728868923635</v>
       </c>
       <c r="E12" t="n">
-        <v>-23.97842276489345</v>
+        <v>-23.03892676031274</v>
       </c>
       <c r="F12" t="n">
-        <v>4.228404124353465</v>
+        <v>4.936009644229533</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.721722025343739</v>
+        <v>-8.183214939539308</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-4.45060158816366</v>
       </c>
       <c r="E13" t="n">
-        <v>-24.57921326274116</v>
+        <v>-23.6657463307199</v>
       </c>
       <c r="F13" t="n">
-        <v>5.060698875363332</v>
+        <v>5.750224847845549</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.473780931095014</v>
+        <v>-7.885806873811139</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-3.927676753949292</v>
       </c>
       <c r="E14" t="n">
-        <v>-25.76739349061436</v>
+        <v>-24.84913533186353</v>
       </c>
       <c r="F14" t="n">
-        <v>5.378230093355723</v>
+        <v>6.056780245421717</v>
       </c>
       <c r="G14" t="n">
-        <v>-6.802970076899348</v>
+        <v>-7.058899808368612</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-3.429397259766025</v>
       </c>
       <c r="E15" t="n">
-        <v>-26.19520603650376</v>
+        <v>-25.37138882340112</v>
       </c>
       <c r="F15" t="n">
-        <v>5.801750091215965</v>
+        <v>6.491813854453542</v>
       </c>
       <c r="G15" t="n">
-        <v>-6.448072179423125</v>
+        <v>-6.580706046715661</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-2.963726767563998</v>
       </c>
       <c r="E16" t="n">
-        <v>-27.20351236823286</v>
+        <v>-26.28944164386354</v>
       </c>
       <c r="F16" t="n">
-        <v>6.09138463602574</v>
+        <v>6.719040226607149</v>
       </c>
       <c r="G16" t="n">
-        <v>-6.230863382339828</v>
+        <v>-6.397793632803772</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-2.538103874086644</v>
       </c>
       <c r="E17" t="n">
-        <v>-28.28354531970648</v>
+        <v>-27.35279574841068</v>
       </c>
       <c r="F17" t="n">
-        <v>6.578574170313815</v>
+        <v>7.152748914778041</v>
       </c>
       <c r="G17" t="n">
-        <v>-6.080888207690345</v>
+        <v>-6.065566060169433</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-2.158216799399018</v>
       </c>
       <c r="E18" t="n">
-        <v>-28.77635965639494</v>
+        <v>-27.96075353032528</v>
       </c>
       <c r="F18" t="n">
-        <v>6.910884856064891</v>
+        <v>7.48321644494029</v>
       </c>
       <c r="G18" t="n">
-        <v>-5.985933916321123</v>
+        <v>-5.990710476030099</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-1.827666862955056</v>
       </c>
       <c r="E19" t="n">
-        <v>-29.83668991019488</v>
+        <v>-29.01150621967295</v>
       </c>
       <c r="F19" t="n">
-        <v>7.069684688109155</v>
+        <v>7.744264966599213</v>
       </c>
       <c r="G19" t="n">
-        <v>-5.642530073989017</v>
+        <v>-5.686350242537175</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-1.547639427009972</v>
       </c>
       <c r="E20" t="n">
-        <v>-30.48918898917052</v>
+        <v>-29.68339509988277</v>
       </c>
       <c r="F20" t="n">
-        <v>7.291200700242205</v>
+        <v>8.057117405019968</v>
       </c>
       <c r="G20" t="n">
-        <v>-5.562003241884061</v>
+        <v>-5.581935722880473</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-1.317861514572829</v>
       </c>
       <c r="E21" t="n">
-        <v>-31.17793272055403</v>
+        <v>-30.37491578716669</v>
       </c>
       <c r="F21" t="n">
-        <v>7.620015746083436</v>
+        <v>8.338914871822078</v>
       </c>
       <c r="G21" t="n">
-        <v>-5.489988170734404</v>
+        <v>-5.537944439091972</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-1.139926283650588</v>
       </c>
       <c r="E22" t="n">
-        <v>-31.47428231629551</v>
+        <v>-30.66452099793526</v>
       </c>
       <c r="F22" t="n">
-        <v>7.542725436524378</v>
+        <v>8.346981733152488</v>
       </c>
       <c r="G22" t="n">
-        <v>-5.545087278124536</v>
+        <v>-5.601208187949852</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-1.012874524662239</v>
       </c>
       <c r="E23" t="n">
-        <v>-31.83193272463781</v>
+        <v>-31.02602149918525</v>
       </c>
       <c r="F23" t="n">
-        <v>7.673134805692468</v>
+        <v>8.463310762543863</v>
       </c>
       <c r="G23" t="n">
-        <v>-5.131091065641044</v>
+        <v>-5.393273836893092</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-0.9345688241030135</v>
       </c>
       <c r="E24" t="n">
-        <v>-31.95524325583514</v>
+        <v>-31.13577970334749</v>
       </c>
       <c r="F24" t="n">
-        <v>7.963390254374341</v>
+        <v>8.878822567156096</v>
       </c>
       <c r="G24" t="n">
-        <v>-5.303071660198511</v>
+        <v>-5.45099345196389</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-0.9037318627561012</v>
       </c>
       <c r="E25" t="n">
-        <v>-32.09820026112717</v>
+        <v>-31.20122639377145</v>
       </c>
       <c r="F25" t="n">
-        <v>7.889126240065903</v>
+        <v>8.792600042051184</v>
       </c>
       <c r="G25" t="n">
-        <v>-5.16691281895493</v>
+        <v>-5.366794975701881</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-0.9180021279420465</v>
       </c>
       <c r="E26" t="n">
-        <v>-31.90224397689435</v>
+        <v>-31.12237649102184</v>
       </c>
       <c r="F26" t="n">
-        <v>7.521404477577762</v>
+        <v>8.400091014747785</v>
       </c>
       <c r="G26" t="n">
-        <v>-5.176182375974601</v>
+        <v>-5.359842807937127</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-0.9741079210803752</v>
       </c>
       <c r="E27" t="n">
-        <v>-32.12942390348272</v>
+        <v>-31.29055343823685</v>
       </c>
       <c r="F27" t="n">
-        <v>7.575662675786784</v>
+        <v>8.467217079030528</v>
       </c>
       <c r="G27" t="n">
-        <v>-4.705889249418584</v>
+        <v>-5.014620255050529</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-1.067098479822839</v>
       </c>
       <c r="E28" t="n">
-        <v>-31.7353063929201</v>
+        <v>-30.97031859944705</v>
       </c>
       <c r="F28" t="n">
-        <v>7.476239832141202</v>
+        <v>8.381072778035486</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.845793069922222</v>
+        <v>-5.241299058435041</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-1.191870294501671</v>
       </c>
       <c r="E29" t="n">
-        <v>-31.55206886005156</v>
+        <v>-30.86205643138609</v>
       </c>
       <c r="F29" t="n">
-        <v>7.084576603025778</v>
+        <v>7.995295913187828</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.502951463379811</v>
+        <v>-4.931067127694953</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-1.342997830080166</v>
       </c>
       <c r="E30" t="n">
-        <v>-31.67191797438712</v>
+        <v>-31.03355545876716</v>
       </c>
       <c r="F30" t="n">
-        <v>6.929722199523114</v>
+        <v>7.772401201118308</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.573783394867675</v>
+        <v>-5.062493410291361</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-1.513877884977712</v>
       </c>
       <c r="E31" t="n">
-        <v>-31.17845584428879</v>
+        <v>-30.66381698094642</v>
       </c>
       <c r="F31" t="n">
-        <v>6.819132864193498</v>
+        <v>7.662271432434182</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.504828842016707</v>
+        <v>-5.03274869251305</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-1.697093010719058</v>
       </c>
       <c r="E32" t="n">
-        <v>-31.18907232270029</v>
+        <v>-30.71426175379925</v>
       </c>
       <c r="F32" t="n">
-        <v>6.529444540308186</v>
+        <v>7.432952565341536</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.506779555756606</v>
+        <v>-5.15403028586061</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-1.887325409600386</v>
       </c>
       <c r="E33" t="n">
-        <v>-30.64937485466156</v>
+        <v>-30.28235710916225</v>
       </c>
       <c r="F33" t="n">
-        <v>6.565373851773145</v>
+        <v>7.39074576905946</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.118167066926137</v>
+        <v>-4.850007393841503</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-2.078864383389506</v>
       </c>
       <c r="E34" t="n">
-        <v>-30.26392555327398</v>
+        <v>-30.00881473045493</v>
       </c>
       <c r="F34" t="n">
-        <v>6.39895205802336</v>
+        <v>7.327486909208448</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.009640892494359</v>
+        <v>-4.811980698430639</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-2.266634789480931</v>
       </c>
       <c r="E35" t="n">
-        <v>-29.69593295799297</v>
+        <v>-29.58773923602814</v>
       </c>
       <c r="F35" t="n">
-        <v>6.535643801015435</v>
+        <v>7.385353194485253</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.064114207005526</v>
+        <v>-4.912425344511406</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-2.446021125101288</v>
       </c>
       <c r="E36" t="n">
-        <v>-29.39103493374468</v>
+        <v>-29.30470729499213</v>
       </c>
       <c r="F36" t="n">
-        <v>6.402843707489424</v>
+        <v>7.360028138914633</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.110486437138214</v>
+        <v>-4.882255283135674</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-2.613592803440434</v>
       </c>
       <c r="E37" t="n">
-        <v>-29.09278106982854</v>
+        <v>-29.12843415240551</v>
       </c>
       <c r="F37" t="n">
-        <v>6.573044703547334</v>
+        <v>7.382502903481841</v>
       </c>
       <c r="G37" t="n">
-        <v>-3.917282663771469</v>
+        <v>-4.756065126893732</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-2.766657000294325</v>
       </c>
       <c r="E38" t="n">
-        <v>-28.37577643425083</v>
+        <v>-28.52249553032695</v>
       </c>
       <c r="F38" t="n">
-        <v>6.180247224838786</v>
+        <v>7.083647691721064</v>
       </c>
       <c r="G38" t="n">
-        <v>-3.823056834425417</v>
+        <v>-4.661487289053262</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-2.90244108125593</v>
       </c>
       <c r="E39" t="n">
-        <v>-27.7851404036657</v>
+        <v>-27.99875578070181</v>
       </c>
       <c r="F39" t="n">
-        <v>6.145398383891417</v>
+        <v>7.071278504347769</v>
       </c>
       <c r="G39" t="n">
-        <v>-3.832849515179848</v>
+        <v>-4.650223017231891</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-3.019116647588871</v>
       </c>
       <c r="E40" t="n">
-        <v>-27.41528703418358</v>
+        <v>-27.60062928450833</v>
       </c>
       <c r="F40" t="n">
-        <v>6.221305104507138</v>
+        <v>7.078973801156294</v>
       </c>
       <c r="G40" t="n">
-        <v>-3.591596582325063</v>
+        <v>-4.441041969424067</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-3.116325787773385</v>
       </c>
       <c r="E41" t="n">
-        <v>-27.19142918776128</v>
+        <v>-27.43113474994269</v>
       </c>
       <c r="F41" t="n">
-        <v>6.068543195943514</v>
+        <v>6.894428458950856</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.883313844060144</v>
+        <v>-4.678603702094332</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-3.193650076333381</v>
       </c>
       <c r="E42" t="n">
-        <v>-26.57568077340424</v>
+        <v>-26.84649019727296</v>
       </c>
       <c r="F42" t="n">
-        <v>5.896943943921666</v>
+        <v>6.758264728700407</v>
       </c>
       <c r="G42" t="n">
-        <v>-3.705916229894135</v>
+        <v>-4.46549189276551</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-3.250839192234502</v>
       </c>
       <c r="E43" t="n">
-        <v>-26.0975090122822</v>
+        <v>-26.4408541865319</v>
       </c>
       <c r="F43" t="n">
-        <v>5.758316154210292</v>
+        <v>6.75936964425233</v>
       </c>
       <c r="G43" t="n">
-        <v>-3.631221982981409</v>
+        <v>-4.440792630073855</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-3.287086466859226</v>
       </c>
       <c r="E44" t="n">
-        <v>-25.35541154896004</v>
+        <v>-25.78087737155332</v>
       </c>
       <c r="F44" t="n">
-        <v>5.848865450392425</v>
+        <v>6.803008919546413</v>
       </c>
       <c r="G44" t="n">
-        <v>-3.781734948386252</v>
+        <v>-4.492699215979891</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-3.303524445961296</v>
       </c>
       <c r="E45" t="n">
-        <v>-24.92307667171875</v>
+        <v>-25.32002980626418</v>
       </c>
       <c r="F45" t="n">
-        <v>5.814872185646765</v>
+        <v>6.75925719709439</v>
       </c>
       <c r="G45" t="n">
-        <v>-3.858042567565061</v>
+        <v>-4.459957536992162</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-3.301473160485059</v>
       </c>
       <c r="E46" t="n">
-        <v>-24.37055044966123</v>
+        <v>-24.77490065159629</v>
       </c>
       <c r="F46" t="n">
-        <v>5.762906931658326</v>
+        <v>6.678251242316477</v>
       </c>
       <c r="G46" t="n">
-        <v>-3.903412551290032</v>
+        <v>-4.425485149573544</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-3.282706020074318</v>
       </c>
       <c r="E47" t="n">
-        <v>-24.37761995359078</v>
+        <v>-24.70067086033593</v>
       </c>
       <c r="F47" t="n">
-        <v>5.92157964952405</v>
+        <v>6.850182946805275</v>
       </c>
       <c r="G47" t="n">
-        <v>-4.018646443143217</v>
+        <v>-4.515926887604604</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-3.250707170143185</v>
       </c>
       <c r="E48" t="n">
-        <v>-23.83426061940872</v>
+        <v>-24.28527639188849</v>
       </c>
       <c r="F48" t="n">
-        <v>5.894039873842718</v>
+        <v>6.779419461413548</v>
       </c>
       <c r="G48" t="n">
-        <v>-4.136676846924278</v>
+        <v>-4.619608056231269</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-3.209941225675359</v>
       </c>
       <c r="E49" t="n">
-        <v>-23.08854529100505</v>
+        <v>-23.57113915883823</v>
       </c>
       <c r="F49" t="n">
-        <v>6.021667398103533</v>
+        <v>6.953448549848252</v>
       </c>
       <c r="G49" t="n">
-        <v>-4.320606174264485</v>
+        <v>-4.741891895986546</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-3.164508218716103</v>
       </c>
       <c r="E50" t="n">
-        <v>-22.96704369234849</v>
+        <v>-23.35929360228794</v>
       </c>
       <c r="F50" t="n">
-        <v>5.902776529113895</v>
+        <v>6.836909293161601</v>
       </c>
       <c r="G50" t="n">
-        <v>-4.542381303761481</v>
+        <v>-4.932294268418548</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-3.117827417983788</v>
       </c>
       <c r="E51" t="n">
-        <v>-22.56612068422713</v>
+        <v>-22.92198171605613</v>
       </c>
       <c r="F51" t="n">
-        <v>5.991360444535528</v>
+        <v>6.850950520883381</v>
       </c>
       <c r="G51" t="n">
-        <v>-4.289409421446701</v>
+        <v>-4.682642021766403</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-3.072480631817218</v>
       </c>
       <c r="E52" t="n">
-        <v>-21.90285845663398</v>
+        <v>-22.30028093583863</v>
       </c>
       <c r="F52" t="n">
-        <v>5.925657081251058</v>
+        <v>6.778167875655618</v>
       </c>
       <c r="G52" t="n">
-        <v>-4.481112269705303</v>
+        <v>-4.862044128747848</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-3.031751532120357</v>
       </c>
       <c r="E53" t="n">
-        <v>-21.49050983946464</v>
+        <v>-21.88353710149593</v>
       </c>
       <c r="F53" t="n">
-        <v>6.277000670735033</v>
+        <v>7.123581099810026</v>
       </c>
       <c r="G53" t="n">
-        <v>-4.547353423745133</v>
+        <v>-4.891686177381953</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-2.996886530446973</v>
       </c>
       <c r="E54" t="n">
-        <v>-20.91276611998756</v>
+        <v>-21.26688177636508</v>
       </c>
       <c r="F54" t="n">
-        <v>6.449132824505375</v>
+        <v>7.147879463938593</v>
       </c>
       <c r="G54" t="n">
-        <v>-4.520532332073238</v>
+        <v>-4.793094464903747</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-2.966815138998203</v>
       </c>
       <c r="E55" t="n">
-        <v>-20.61235620404311</v>
+        <v>-21.01784554457817</v>
       </c>
       <c r="F55" t="n">
-        <v>6.339472400480473</v>
+        <v>7.064052552198469</v>
       </c>
       <c r="G55" t="n">
-        <v>-5.016918088277979</v>
+        <v>-5.162287818458829</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-2.940880504015543</v>
       </c>
       <c r="E56" t="n">
-        <v>-20.04625320991616</v>
+        <v>-20.48193216785442</v>
       </c>
       <c r="F56" t="n">
-        <v>6.213619585712348</v>
+        <v>6.96199453385162</v>
       </c>
       <c r="G56" t="n">
-        <v>-5.058606649832163</v>
+        <v>-5.325658871923658</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-2.917349558435425</v>
       </c>
       <c r="E57" t="n">
-        <v>-19.81234845438235</v>
+        <v>-20.08382033868153</v>
       </c>
       <c r="F57" t="n">
-        <v>6.253460102670838</v>
+        <v>7.003780875543142</v>
       </c>
       <c r="G57" t="n">
-        <v>-5.312507443451657</v>
+        <v>-5.484072472425437</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-2.893851955575252</v>
       </c>
       <c r="E58" t="n">
-        <v>-19.42730005155786</v>
+        <v>-19.80176864352234</v>
       </c>
       <c r="F58" t="n">
-        <v>5.945755788480945</v>
+        <v>6.739495831338321</v>
       </c>
       <c r="G58" t="n">
-        <v>-5.715293163189312</v>
+        <v>-5.879651796041259</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-2.86790546885847</v>
       </c>
       <c r="E59" t="n">
-        <v>-18.9108498111713</v>
+        <v>-19.27944181688175</v>
       </c>
       <c r="F59" t="n">
-        <v>6.083425332846403</v>
+        <v>6.913588476862295</v>
       </c>
       <c r="G59" t="n">
-        <v>-5.495693641748093</v>
+        <v>-5.829906151170399</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-2.837812511027481</v>
       </c>
       <c r="E60" t="n">
-        <v>-18.29168153651085</v>
+        <v>-18.74084926439493</v>
       </c>
       <c r="F60" t="n">
-        <v>5.855915398294516</v>
+        <v>6.742209230149458</v>
       </c>
       <c r="G60" t="n">
-        <v>-5.901652326942376</v>
+        <v>-6.20261958966966</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-2.803418507473144</v>
       </c>
       <c r="E61" t="n">
-        <v>-18.0149148577748</v>
+        <v>-18.51009302928341</v>
       </c>
       <c r="F61" t="n">
-        <v>5.631866880604404</v>
+        <v>6.53593714142745</v>
       </c>
       <c r="G61" t="n">
-        <v>-5.891639640878934</v>
+        <v>-6.233762563411909</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-2.764349789821484</v>
       </c>
       <c r="E62" t="n">
-        <v>-17.76057405353728</v>
+        <v>-18.27112326263548</v>
       </c>
       <c r="F62" t="n">
-        <v>5.635445633630987</v>
+        <v>6.516307778856786</v>
       </c>
       <c r="G62" t="n">
-        <v>-5.991707833430949</v>
+        <v>-6.312979141676531</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-2.720338011813813</v>
       </c>
       <c r="E63" t="n">
-        <v>-17.23155417649588</v>
+        <v>-17.62867842628165</v>
       </c>
       <c r="F63" t="n">
-        <v>5.54171848298536</v>
+        <v>6.508573369993327</v>
       </c>
       <c r="G63" t="n">
-        <v>-5.946914752516275</v>
+        <v>-6.234999482149238</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-2.674043565709093</v>
       </c>
       <c r="E64" t="n">
-        <v>-17.32327683432607</v>
+        <v>-17.66973630595</v>
       </c>
       <c r="F64" t="n">
-        <v>5.385974280232917</v>
+        <v>6.297725170843886</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.174766917548846</v>
+        <v>-6.573768545971508</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-2.628192912644246</v>
       </c>
       <c r="E65" t="n">
-        <v>-16.92382052826479</v>
+        <v>-17.29825978618807</v>
       </c>
       <c r="F65" t="n">
-        <v>5.460619637076975</v>
+        <v>6.398482713364136</v>
       </c>
       <c r="G65" t="n">
-        <v>-6.051945287038208</v>
+        <v>-6.430114857200946</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-2.586312913632753</v>
       </c>
       <c r="E66" t="n">
-        <v>-16.89746389224525</v>
+        <v>-17.14872951116348</v>
       </c>
       <c r="F66" t="n">
-        <v>5.481309914137759</v>
+        <v>6.413355072253291</v>
       </c>
       <c r="G66" t="n">
-        <v>-6.206931693726279</v>
+        <v>-6.520214364751323</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-2.55162080949322</v>
       </c>
       <c r="E67" t="n">
-        <v>-16.70143427290943</v>
+        <v>-16.99065814114238</v>
       </c>
       <c r="F67" t="n">
-        <v>5.167665456604564</v>
+        <v>6.064035531612218</v>
       </c>
       <c r="G67" t="n">
-        <v>-6.190812638086061</v>
+        <v>-6.529078134201039</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-2.528780157974743</v>
       </c>
       <c r="E68" t="n">
-        <v>-16.57466721385719</v>
+        <v>-16.68103244725379</v>
       </c>
       <c r="F68" t="n">
-        <v>5.040903286559193</v>
+        <v>6.037708229633881</v>
       </c>
       <c r="G68" t="n">
-        <v>-6.267188703361006</v>
+        <v>-6.653659807183765</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-2.522129505316367</v>
       </c>
       <c r="E69" t="n">
-        <v>-16.59403257005704</v>
+        <v>-16.70283741788023</v>
       </c>
       <c r="F69" t="n">
-        <v>5.212702987862585</v>
+        <v>6.127304169476965</v>
       </c>
       <c r="G69" t="n">
-        <v>-5.94090127406997</v>
+        <v>-6.354535700045308</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-2.534670904009032</v>
       </c>
       <c r="E70" t="n">
-        <v>-16.38628400126122</v>
+        <v>-16.36032826380477</v>
       </c>
       <c r="F70" t="n">
-        <v>5.158244340372018</v>
+        <v>6.079274566016392</v>
       </c>
       <c r="G70" t="n">
-        <v>-5.848455043223474</v>
+        <v>-6.209043744692787</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-2.567931261563346</v>
       </c>
       <c r="E71" t="n">
-        <v>-16.43666521702478</v>
+        <v>-16.5301283612996</v>
       </c>
       <c r="F71" t="n">
-        <v>4.936943444541114</v>
+        <v>5.874268730072915</v>
       </c>
       <c r="G71" t="n">
-        <v>-5.612428458709422</v>
+        <v>-5.953153125278458</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-2.623577423527715</v>
       </c>
       <c r="E72" t="n">
-        <v>-16.42529827605921</v>
+        <v>-16.5046810805573</v>
       </c>
       <c r="F72" t="n">
-        <v>4.886435114599015</v>
+        <v>5.889463763415286</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.625721668380564</v>
+        <v>-5.940798604925764</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-2.700788496225035</v>
       </c>
       <c r="E73" t="n">
-        <v>-16.38883117383889</v>
+        <v>-16.35401166693272</v>
       </c>
       <c r="F73" t="n">
-        <v>4.944301399875821</v>
+        <v>5.874967858054883</v>
       </c>
       <c r="G73" t="n">
-        <v>-5.630532451137608</v>
+        <v>-6.031396791176565</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-2.797022452925387</v>
       </c>
       <c r="E74" t="n">
-        <v>-16.616883788153</v>
+        <v>-16.48956916033167</v>
       </c>
       <c r="F74" t="n">
-        <v>4.907252505838339</v>
+        <v>5.747643452219817</v>
       </c>
       <c r="G74" t="n">
-        <v>-5.232200616655712</v>
+        <v>-5.616735673759174</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-2.907361769460179</v>
       </c>
       <c r="E75" t="n">
-        <v>-16.87770741549605</v>
+        <v>-16.66791035282299</v>
       </c>
       <c r="F75" t="n">
-        <v>4.876515319666045</v>
+        <v>5.688608694301819</v>
       </c>
       <c r="G75" t="n">
-        <v>-5.2706819897052</v>
+        <v>-5.613821825666492</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-3.027280066648189</v>
       </c>
       <c r="E76" t="n">
-        <v>-16.97659246838627</v>
+        <v>-16.76138327511154</v>
       </c>
       <c r="F76" t="n">
-        <v>4.7226924966123</v>
+        <v>5.56561594855084</v>
       </c>
       <c r="G76" t="n">
-        <v>-5.042331145972203</v>
+        <v>-5.445287980950201</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-3.150361080277496</v>
       </c>
       <c r="E77" t="n">
-        <v>-17.17790710414522</v>
+        <v>-16.93283585692738</v>
       </c>
       <c r="F77" t="n">
-        <v>4.751087848495342</v>
+        <v>5.5661537393062</v>
       </c>
       <c r="G77" t="n">
-        <v>-4.732734786124814</v>
+        <v>-5.205609308306562</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-3.268862915732297</v>
       </c>
       <c r="E78" t="n">
-        <v>-17.60060574885182</v>
+        <v>-17.27794596265604</v>
       </c>
       <c r="F78" t="n">
-        <v>4.531546995136527</v>
+        <v>5.340100728800654</v>
       </c>
       <c r="G78" t="n">
-        <v>-4.10903440209874</v>
+        <v>-4.825366799232252</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-3.376108968251339</v>
       </c>
       <c r="E79" t="n">
-        <v>-17.8528833921915</v>
+        <v>-17.50692748827487</v>
       </c>
       <c r="F79" t="n">
-        <v>4.693412234486346</v>
+        <v>5.474484860551545</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.834076655903444</v>
+        <v>-4.496893983871704</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-3.467051392096313</v>
       </c>
       <c r="E80" t="n">
-        <v>-18.21151649091405</v>
+        <v>-17.8895020536247</v>
       </c>
       <c r="F80" t="n">
-        <v>4.480344426219326</v>
+        <v>5.293039148699731</v>
       </c>
       <c r="G80" t="n">
-        <v>-3.434850133164903</v>
+        <v>-4.185650028710165</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-3.537092905546469</v>
       </c>
       <c r="E81" t="n">
-        <v>-19.12135577984006</v>
+        <v>-18.65707613173034</v>
       </c>
       <c r="F81" t="n">
-        <v>4.43209970645661</v>
+        <v>5.263934890820986</v>
       </c>
       <c r="G81" t="n">
-        <v>-3.091847189395884</v>
+        <v>-3.928747384874385</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-3.583091682367619</v>
       </c>
       <c r="E82" t="n">
-        <v>-19.85368500744211</v>
+        <v>-19.34095041227441</v>
       </c>
       <c r="F82" t="n">
-        <v>4.35302002038426</v>
+        <v>5.089715131118472</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.882832367821536</v>
+        <v>-3.677330206743284</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-3.602531097400404</v>
       </c>
       <c r="E83" t="n">
-        <v>-20.43093982623249</v>
+        <v>-19.97943026405916</v>
       </c>
       <c r="F83" t="n">
-        <v>4.119931728997223</v>
+        <v>4.838840632749599</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.669040986538212</v>
+        <v>-3.539557993233621</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-3.596161061175552</v>
       </c>
       <c r="E84" t="n">
-        <v>-21.72003893385256</v>
+        <v>-21.1353186015764</v>
       </c>
       <c r="F84" t="n">
-        <v>3.854786219583825</v>
+        <v>4.581233971924982</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.160198040836571</v>
+        <v>-3.084142114573626</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-3.565108766950543</v>
       </c>
       <c r="E85" t="n">
-        <v>-22.48749078678653</v>
+        <v>-21.95943893310478</v>
       </c>
       <c r="F85" t="n">
-        <v>3.957988265537532</v>
+        <v>4.772853707066847</v>
       </c>
       <c r="G85" t="n">
-        <v>-2.19980388546545</v>
+        <v>-3.058215711158376</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-3.511032032460909</v>
       </c>
       <c r="E86" t="n">
-        <v>-23.41563451742227</v>
+        <v>-22.79979565643819</v>
       </c>
       <c r="F86" t="n">
-        <v>3.639889922748578</v>
+        <v>4.433170398960463</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.817644885699309</v>
+        <v>-2.765892212571798</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-3.438032752711286</v>
       </c>
       <c r="E87" t="n">
-        <v>-24.19006298315533</v>
+        <v>-23.54446473737234</v>
       </c>
       <c r="F87" t="n">
-        <v>3.514892684182163</v>
+        <v>4.281875192456914</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.800381802452232</v>
+        <v>-2.697133219995506</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-3.351015574344664</v>
       </c>
       <c r="E88" t="n">
-        <v>-25.41301382786603</v>
+        <v>-24.81305935019257</v>
       </c>
       <c r="F88" t="n">
-        <v>3.656224094690941</v>
+        <v>4.259248868676831</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.575213702189597</v>
+        <v>-2.603014948800526</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-3.255324404386583</v>
       </c>
       <c r="E89" t="n">
-        <v>-26.77862833745675</v>
+        <v>-26.07326931623603</v>
       </c>
       <c r="F89" t="n">
-        <v>3.157843623684498</v>
+        <v>3.703505680100875</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.401477954166908</v>
+        <v>-2.52328013580801</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-3.156256846266525</v>
       </c>
       <c r="E90" t="n">
-        <v>-28.03819784360065</v>
+        <v>-27.46053968174375</v>
       </c>
       <c r="F90" t="n">
-        <v>3.216765934444557</v>
+        <v>3.796421255606594</v>
       </c>
       <c r="G90" t="n">
-        <v>-1.422823358147858</v>
+        <v>-2.527988249420849</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-3.059724036452653</v>
       </c>
       <c r="E91" t="n">
-        <v>-29.74427301338959</v>
+        <v>-29.14762105985472</v>
       </c>
       <c r="F91" t="n">
-        <v>2.857717270138323</v>
+        <v>3.415406283447311</v>
       </c>
       <c r="G91" t="n">
-        <v>-1.600421421595411</v>
+        <v>-2.723167181561828</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-2.973169223199863</v>
       </c>
       <c r="E92" t="n">
-        <v>-31.37338299257612</v>
+        <v>-30.83949855370214</v>
       </c>
       <c r="F92" t="n">
-        <v>2.544253705859204</v>
+        <v>3.169484349034622</v>
       </c>
       <c r="G92" t="n">
-        <v>-1.823418802809135</v>
+        <v>-2.901523041073752</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-2.903349732252202</v>
       </c>
       <c r="E93" t="n">
-        <v>-32.96055507085826</v>
+        <v>-32.39430051751844</v>
       </c>
       <c r="F93" t="n">
-        <v>2.297984651958965</v>
+        <v>2.8336340223119</v>
       </c>
       <c r="G93" t="n">
-        <v>-2.148581760520782</v>
+        <v>-3.258963222120771</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-2.855318718914643</v>
       </c>
       <c r="E94" t="n">
-        <v>-34.899672086469</v>
+        <v>-34.36570942348515</v>
       </c>
       <c r="F94" t="n">
-        <v>1.737303566447424</v>
+        <v>2.31949628217339</v>
       </c>
       <c r="G94" t="n">
-        <v>-1.952659699336032</v>
+        <v>-3.132386834336343</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-2.83560267204822</v>
       </c>
       <c r="E95" t="n">
-        <v>-37.18269406761571</v>
+        <v>-36.5720546654346</v>
       </c>
       <c r="F95" t="n">
-        <v>1.405770232788188</v>
+        <v>1.829920912534261</v>
       </c>
       <c r="G95" t="n">
-        <v>-2.002165782870413</v>
+        <v>-3.260004580583423</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-2.850369418318973</v>
       </c>
       <c r="E96" t="n">
-        <v>-38.90778014060665</v>
+        <v>-38.3779462439219</v>
       </c>
       <c r="F96" t="n">
-        <v>1.165099091750566</v>
+        <v>1.570119087626401</v>
       </c>
       <c r="G96" t="n">
-        <v>-2.230902858145896</v>
+        <v>-3.570529851735527</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-2.900580336312983</v>
       </c>
       <c r="E97" t="n">
-        <v>-40.95495643049338</v>
+        <v>-40.48516931614809</v>
       </c>
       <c r="F97" t="n">
-        <v>0.6807109583972335</v>
+        <v>1.100285527715874</v>
       </c>
       <c r="G97" t="n">
-        <v>-2.457034092761313</v>
+        <v>-3.818803398451201</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-2.991304501579355</v>
       </c>
       <c r="E98" t="n">
-        <v>-42.53699749606869</v>
+        <v>-42.25806498729059</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2962883484517111</v>
+        <v>0.7228981986518426</v>
       </c>
       <c r="G98" t="n">
-        <v>-2.717134147088055</v>
+        <v>-4.144152138423791</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-3.116990719625317</v>
       </c>
       <c r="E99" t="n">
-        <v>-45.04256462529393</v>
+        <v>-44.76334855411755</v>
       </c>
       <c r="F99" t="n">
-        <v>0.08152894380873818</v>
+        <v>0.3932080205814331</v>
       </c>
       <c r="G99" t="n">
-        <v>-2.843852316071623</v>
+        <v>-4.316074064898855</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-3.28679221795519</v>
       </c>
       <c r="E100" t="n">
-        <v>-47.57800603097945</v>
+        <v>-47.29070109794176</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.6940728835723831</v>
+        <v>-0.3620262041921205</v>
       </c>
       <c r="G100" t="n">
-        <v>-3.309505775110937</v>
+        <v>-4.652310623164063</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-3.482022164122232</v>
       </c>
       <c r="E101" t="n">
-        <v>-49.31241788456903</v>
+        <v>-49.15442840541296</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.6857909059398291</v>
+        <v>-0.3561740629724233</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.65375541563102</v>
+        <v>-5.06143249580124</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-3.724011505718007</v>
       </c>
       <c r="E102" t="n">
-        <v>-51.37587456732259</v>
+        <v>-51.3456495046196</v>
       </c>
       <c r="F102" t="n">
-        <v>-1.035482011102788</v>
+        <v>-0.7995238726848716</v>
       </c>
       <c r="G102" t="n">
-        <v>-3.92563308750016</v>
+        <v>-5.375125843403104</v>
       </c>
     </row>
   </sheetData>
